--- a/データベースメモ.xlsx
+++ b/データベースメモ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NameBattler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{459FC38B-62E8-40BC-AC3A-E36CC944943E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A2514E-8C05-415E-8952-B93270B1B5A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{E80FC9AF-57C2-4960-8AE5-9133C60EB676}"/>
+    <workbookView minimized="1" xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{E80FC9AF-57C2-4960-8AE5-9133C60EB676}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -438,7 +438,7 @@
   <dimension ref="B2:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
